--- a/classifier_data.xlsx
+++ b/classifier_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\tech-tool-id\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40438B34-31F4-462E-A63E-B971E1D53A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CBAE28-6BB2-460F-9286-315D76F85678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-17616" yWindow="6384" windowWidth="20928" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="86">
   <si>
     <t>CategoryCode</t>
   </si>
@@ -287,12 +287,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -344,7 +352,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -380,45 +388,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -725,7 +747,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,7 +1042,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD23"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1158,7 +1180,18 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="12"/>
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="12"/>
@@ -1185,7 +1218,7 @@
       <c r="B18" s="12"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/classifier_data.xlsx
+++ b/classifier_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\tech-tool-id\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CBAE28-6BB2-460F-9286-315D76F85678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0EC2F8-E14C-4CD3-800B-644A028A0C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17616" yWindow="6384" windowWidth="20928" windowHeight="12552" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Категории" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="89">
   <si>
     <t>CategoryCode</t>
   </si>
@@ -281,18 +281,35 @@
   </si>
   <si>
     <t>SeriesName</t>
+  </si>
+  <si>
+    <t>Optics</t>
+  </si>
+  <si>
+    <t>Общая</t>
+  </si>
+  <si>
+    <t>Плата плата</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -403,40 +420,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -843,10 +869,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,6 +1058,28 @@
         <v>52</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1042,7 +1090,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,13 +1242,46 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="12"/>
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="12"/>
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
@@ -1218,7 +1299,7 @@
       <c r="B18" s="12"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/classifier_data.xlsx
+++ b/classifier_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\tech-tool-id\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0EC2F8-E14C-4CD3-800B-644A028A0C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD05CA4C-22DC-4ED0-8351-9CE8DD9E7CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="168">
   <si>
     <t>CategoryCode</t>
   </si>
@@ -190,9 +190,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>Общая для класса</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -283,25 +280,273 @@
     <t>SeriesName</t>
   </si>
   <si>
-    <t>Optics</t>
-  </si>
-  <si>
-    <t>Общая</t>
-  </si>
-  <si>
-    <t>Плата плата</t>
+    <t>Общая для категории</t>
+  </si>
+  <si>
+    <t>MCR-1XX</t>
+  </si>
+  <si>
+    <t>MCR-2XX</t>
+  </si>
+  <si>
+    <t>MCR-5XX</t>
+  </si>
+  <si>
+    <t>BC-1020</t>
+  </si>
+  <si>
+    <t>CS2124XX</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>SN12XXX</t>
+  </si>
+  <si>
+    <t>TNC-500</t>
+  </si>
+  <si>
+    <t>Server B4ST</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>CS4132U</t>
+  </si>
+  <si>
+    <t>CS4132U (Скала-Р)</t>
+  </si>
+  <si>
+    <t>CS4148D-6U</t>
+  </si>
+  <si>
+    <t>CS4148Q-8U</t>
+  </si>
+  <si>
+    <t>CS4148Q-8U (Скала-Р)</t>
+  </si>
+  <si>
+    <t>CS4164U</t>
+  </si>
+  <si>
+    <t>CS5132U</t>
+  </si>
+  <si>
+    <t>CS5148Q-8U</t>
+  </si>
+  <si>
+    <t>CS6132</t>
+  </si>
+  <si>
+    <t>CS6164</t>
+  </si>
+  <si>
+    <t>ISW-7100</t>
+  </si>
+  <si>
+    <t>MR-100</t>
+  </si>
+  <si>
+    <t>MR-200 AC</t>
+  </si>
+  <si>
+    <t>MR-200 DC</t>
+  </si>
+  <si>
+    <t>MR-200 (AC, DC)</t>
+  </si>
+  <si>
+    <t>MR-310 AC</t>
+  </si>
+  <si>
+    <t>MR-310 DC</t>
+  </si>
+  <si>
+    <t>MR-310 (AC, DC)</t>
+  </si>
+  <si>
+    <t>MR-340 AC</t>
+  </si>
+  <si>
+    <t>MR-340 DC</t>
+  </si>
+  <si>
+    <t>MR-340 (AC, DC)</t>
+  </si>
+  <si>
+    <t>MR-350 AC</t>
+  </si>
+  <si>
+    <t>MR-350 DC</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>MR-350 (AC, DC)</t>
+  </si>
+  <si>
+    <t>MR-381 AC</t>
+  </si>
+  <si>
+    <t>MR-381 DC</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>MR-381 (AC, DC)</t>
+  </si>
+  <si>
+    <t>MR-382 AC</t>
+  </si>
+  <si>
+    <t>MR-382 DC</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>MR-382 (AC, DC)</t>
+  </si>
+  <si>
+    <t>MR-400 AC</t>
+  </si>
+  <si>
+    <t>MR-400 DC</t>
+  </si>
+  <si>
+    <t>MR-400 (AC, DC)</t>
+  </si>
+  <si>
+    <t>MR-570 AC</t>
+  </si>
+  <si>
+    <t>MR-570 DC</t>
+  </si>
+  <si>
+    <t>MR-570 (AC, DC)</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>MCR-102-O</t>
+  </si>
+  <si>
+    <t>MCR-102SE</t>
+  </si>
+  <si>
+    <t>MCR-201.W</t>
+  </si>
+  <si>
+    <t>MCR-202</t>
+  </si>
+  <si>
+    <t>MCR-202.B</t>
+  </si>
+  <si>
+    <t>MCR-202.B mini eubd</t>
+  </si>
+  <si>
+    <t>MCR-202.W MOBILE</t>
+  </si>
+  <si>
+    <t>MCR-203</t>
+  </si>
+  <si>
+    <t>MCR-203.B</t>
+  </si>
+  <si>
+    <t>MCR-203.B mini eubd</t>
+  </si>
+  <si>
+    <t>MCR-20X.B с консольной полкой</t>
+  </si>
+  <si>
+    <t>MCR-500</t>
+  </si>
+  <si>
+    <t>MCR-551</t>
+  </si>
+  <si>
+    <t>MCR-551.W</t>
+  </si>
+  <si>
+    <t>MCR-551.W.SBC</t>
+  </si>
+  <si>
+    <t>MCR-551.SBC</t>
+  </si>
+  <si>
+    <t>MCR-552</t>
+  </si>
+  <si>
+    <t>MCR-552.SBC</t>
+  </si>
+  <si>
+    <t>BC-1020 S3V</t>
+  </si>
+  <si>
+    <t>BC-1020 S3V1</t>
+  </si>
+  <si>
+    <t>BC-1020 S3V3</t>
+  </si>
+  <si>
+    <t>BC-XXXX</t>
+  </si>
+  <si>
+    <t>SN1225</t>
+  </si>
+  <si>
+    <t>SN12100</t>
+  </si>
+  <si>
+    <t>TNC-500 SB4</t>
+  </si>
+  <si>
+    <t>TNC-500 SB1</t>
+  </si>
+  <si>
+    <t>TNC-500 SB2</t>
+  </si>
+  <si>
+    <t>TNC-500 SB3</t>
+  </si>
+  <si>
+    <t>TNC-500 XXX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -420,52 +665,66 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -869,17 +1128,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -890,7 +1149,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -900,8 +1159,8 @@
       <c r="B2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>55</v>
+      <c r="C2" s="14" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -909,10 +1168,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -920,10 +1179,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -931,10 +1190,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -942,10 +1201,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -953,10 +1212,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -964,10 +1223,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -975,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>52</v>
@@ -988,8 +1247,8 @@
       <c r="B10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>55</v>
+      <c r="C10" s="14" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -997,10 +1256,10 @@
         <v>45</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1008,10 +1267,10 @@
         <v>45</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1019,10 +1278,10 @@
         <v>45</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1030,10 +1289,10 @@
         <v>45</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1041,10 +1300,10 @@
         <v>45</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1052,32 +1311,208 @@
         <v>45</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20">
         <v>3</v>
       </c>
-      <c r="B17">
+      <c r="C20" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24">
         <v>1</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="C24" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31">
+        <v>9</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B18">
+      <c r="B32">
         <v>0</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>55</v>
+      <c r="C32" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>9</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1087,220 +1522,1425 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="20" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="10" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D7" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="C12" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="D13" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="D14" s="20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="D15" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="D17" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="D18" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="D35" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="19" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="D36" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="12" t="s">
+      <c r="D41" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B61" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C61" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C69" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="10" t="s">
+      <c r="D69" s="19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D70" s="19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D72" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B74" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C76" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="D76" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="19" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C79" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="12"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="12"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="12"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="12"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="12"/>
+      <c r="D79" s="19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D81" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D82" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D83" s="19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B85" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" s="19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D87" s="19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B88" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D88" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B89" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D89" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B90" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C90" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D90" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B91" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C91" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B92" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D92" s="20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B93" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C93" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D93" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B94" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C94" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D94" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B95" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C95" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D95" s="20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B96" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C96" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B97" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C97" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" s="20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B98" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C98" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B99" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D99" s="20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B100" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C100" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D100" s="20" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
